--- a/miav_database.xlsx
+++ b/miav_database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\FMS_monitor_virus_autocheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10451EF-A6AE-4BE6-AAFD-905E0B388FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBEB84E-AB0F-47DB-81A6-86DCE2D046BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>101.36.125.203</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>ip</t>
-  </si>
-  <si>
-    <t>217.8.117.10</t>
   </si>
 </sst>
 </file>
@@ -528,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C9EA72-F18E-4A7F-BF10-50A153997995}">
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
@@ -949,11 +946,6 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
